--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_捷豹组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -135,13 +135,6 @@
     <t>是</t>
     <rPh sb="0" eb="1">
       <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王辉</t>
-    <rPh sb="0" eb="1">
-      <t>wang'hui</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -286,34 +279,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>签约单列表页和详情页状态不一致</t>
-    <rPh sb="0" eb="1">
-      <t>qian'yue'd</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>lie'b</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xiang'q</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ye</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhuang't</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bu'yi'zhi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC</t>
     <rPh sb="0" eb="1">
       <t>fang'd</t>
@@ -349,6 +314,25 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>man</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC下载合同默认PDF格式</t>
+    <rPh sb="0" eb="1">
+      <t>fang'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he't</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mo'r</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ge'shi</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -639,7 +623,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="365">
+  <cellStyleXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,6 +1713,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1885,7 +1887,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="365">
+  <cellStyles count="371">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -2071,6 +2073,9 @@
     <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -2251,6 +2256,9 @@
     <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="370" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2597,7 +2605,7 @@
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2689,13 +2697,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
@@ -2711,26 +2719,26 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="M2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="37"/>
       <c r="O2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
       <c r="S2" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T2" s="10"/>
     </row>
@@ -2739,13 +2747,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>30</v>
@@ -2761,26 +2769,26 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="M3" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="37"/>
       <c r="O3" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T3" s="10"/>
     </row>
@@ -2789,13 +2797,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>30</v>
@@ -2811,20 +2819,20 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="M4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -2837,13 +2845,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>30</v>
@@ -2859,20 +2867,20 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="M5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -2885,13 +2893,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>30</v>
@@ -2907,20 +2915,20 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="M6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>

--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_捷豹组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -333,6 +333,16 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ge'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有脚本字典表添加数据-捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>you</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jiao'b</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2604,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2692,7 +2702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2717,7 +2727,9 @@
       <c r="H2" s="37">
         <v>42571</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J2" s="14" t="s">
         <v>38</v>
       </c>
